--- a/HC-Excel.xlsx
+++ b/HC-Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hardikb\eclipse-workspace\HC-Assignment\"/>
     </mc:Choice>
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="2022-08-23" sheetId="1" r:id="rId1"/>
     <sheet name="2022-08-24" sheetId="2" r:id="rId2"/>
+    <sheet name="2022-08-25" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -491,12 +492,25 @@
   </si>
   <si>
     <t>Miami of Ohio Redhawks Football vs. Kent State Golden Flashes Football</t>
+  </si>
+  <si>
+    <t>Miami City Ballet: Romeo &amp; Juliet</t>
+  </si>
+  <si>
+    <t>Miami City Ballet: Diversion of Angels</t>
+  </si>
+  <si>
+    <t>Detroit City FC vs. Miami FC</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans vs. Miami HEAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2043,4 +2057,1237 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1:B244"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>